--- a/Code/Results/Cases/Case_5_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_151/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051038523525919</v>
+        <v>1.076417455671822</v>
       </c>
       <c r="D2">
-        <v>1.063005547055104</v>
+        <v>1.077045107061167</v>
       </c>
       <c r="E2">
-        <v>1.059388131780473</v>
+        <v>1.079732698394253</v>
       </c>
       <c r="F2">
-        <v>1.068996479440915</v>
+        <v>1.08945147429767</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073170436319208</v>
+        <v>1.062188075918561</v>
       </c>
       <c r="J2">
-        <v>1.071792932203016</v>
+        <v>1.081317015860643</v>
       </c>
       <c r="K2">
-        <v>1.073651728311564</v>
+        <v>1.079727440783993</v>
       </c>
       <c r="L2">
-        <v>1.07007774854878</v>
+        <v>1.082407978077283</v>
       </c>
       <c r="M2">
-        <v>1.079571526337614</v>
+        <v>1.092101558835843</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.057119330182427</v>
+        <v>1.077657705553621</v>
       </c>
       <c r="D3">
-        <v>1.067805539950851</v>
+        <v>1.078034300536449</v>
       </c>
       <c r="E3">
-        <v>1.064590155465553</v>
+        <v>1.080831446594123</v>
       </c>
       <c r="F3">
-        <v>1.074426581025485</v>
+        <v>1.090603890804163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07572123824931</v>
+        <v>1.062624509904485</v>
       </c>
       <c r="J3">
-        <v>1.076165351484297</v>
+        <v>1.08221572525808</v>
       </c>
       <c r="K3">
-        <v>1.077638560838628</v>
+        <v>1.080533833884042</v>
       </c>
       <c r="L3">
-        <v>1.074458277646078</v>
+        <v>1.083324169501241</v>
       </c>
       <c r="M3">
-        <v>1.084188133001151</v>
+        <v>1.093073114497412</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.060958261288807</v>
+        <v>1.0784599984479</v>
       </c>
       <c r="D4">
-        <v>1.070838080145687</v>
+        <v>1.078674096287257</v>
       </c>
       <c r="E4">
-        <v>1.067878607452562</v>
+        <v>1.081542359179416</v>
       </c>
       <c r="F4">
-        <v>1.077859958297462</v>
+        <v>1.091349655251975</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077320749256603</v>
+        <v>1.062905487940874</v>
       </c>
       <c r="J4">
-        <v>1.07892149804591</v>
+        <v>1.082796452219712</v>
       </c>
       <c r="K4">
-        <v>1.080150602299842</v>
+        <v>1.081054726057717</v>
       </c>
       <c r="L4">
-        <v>1.077221415859029</v>
+        <v>1.083916357163479</v>
       </c>
       <c r="M4">
-        <v>1.08710143044728</v>
+        <v>1.093701259569581</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.06255025018945</v>
+        <v>1.078797228890585</v>
       </c>
       <c r="D5">
-        <v>1.07209613107515</v>
+        <v>1.078943000670841</v>
       </c>
       <c r="E5">
-        <v>1.069243294039011</v>
+        <v>1.081841215792141</v>
       </c>
       <c r="F5">
-        <v>1.079284969433802</v>
+        <v>1.09166319352433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.077981413861613</v>
+        <v>1.063023270881851</v>
       </c>
       <c r="J5">
-        <v>1.080063399754343</v>
+        <v>1.083040399956981</v>
       </c>
       <c r="K5">
-        <v>1.081191106095393</v>
+        <v>1.081273495118513</v>
       </c>
       <c r="L5">
-        <v>1.078366659586669</v>
+        <v>1.084165158499748</v>
       </c>
       <c r="M5">
-        <v>1.088309210691305</v>
+        <v>1.093965209261527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.06281629666809</v>
+        <v>1.07885384828678</v>
       </c>
       <c r="D6">
-        <v>1.072306397088172</v>
+        <v>1.078988147071811</v>
       </c>
       <c r="E6">
-        <v>1.069471410711871</v>
+        <v>1.081891394519036</v>
       </c>
       <c r="F6">
-        <v>1.079523180506324</v>
+        <v>1.091715839123143</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.078091664621994</v>
+        <v>1.063043027224346</v>
       </c>
       <c r="J6">
-        <v>1.080254165991787</v>
+        <v>1.083081348755668</v>
       </c>
       <c r="K6">
-        <v>1.08136491705679</v>
+        <v>1.081310214885764</v>
       </c>
       <c r="L6">
-        <v>1.078558010171862</v>
+        <v>1.084206924319999</v>
       </c>
       <c r="M6">
-        <v>1.088511027696046</v>
+        <v>1.094009520425924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.060979618255536</v>
+        <v>1.078464504745276</v>
       </c>
       <c r="D7">
-        <v>1.07085495546801</v>
+        <v>1.078677689657971</v>
       </c>
       <c r="E7">
-        <v>1.06789691129717</v>
+        <v>1.081546352558018</v>
       </c>
       <c r="F7">
-        <v>1.077879070523988</v>
+        <v>1.09135384468995</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077329622766522</v>
+        <v>1.062907063098317</v>
       </c>
       <c r="J7">
-        <v>1.078936821218289</v>
+        <v>1.082799712605917</v>
       </c>
       <c r="K7">
-        <v>1.080164565865744</v>
+        <v>1.081057650100284</v>
       </c>
       <c r="L7">
-        <v>1.07723678212387</v>
+        <v>1.083919682264226</v>
       </c>
       <c r="M7">
-        <v>1.087117634607548</v>
+        <v>1.093704786958196</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.053114027460477</v>
+        <v>1.076836653096697</v>
       </c>
       <c r="D8">
-        <v>1.064643379150997</v>
+        <v>1.077379467874875</v>
       </c>
       <c r="E8">
-        <v>1.061162746781379</v>
+        <v>1.080104036747776</v>
       </c>
       <c r="F8">
-        <v>1.070848745556292</v>
+        <v>1.089840924273873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074043335600897</v>
+        <v>1.062335866064666</v>
       </c>
       <c r="J8">
-        <v>1.073286195076885</v>
+        <v>1.081620904881902</v>
       </c>
       <c r="K8">
-        <v>1.075013520956354</v>
+        <v>1.080000151660504</v>
       </c>
       <c r="L8">
-        <v>1.071573381753939</v>
+        <v>1.082717744408411</v>
       </c>
       <c r="M8">
-        <v>1.081147500877562</v>
+        <v>1.092430008227801</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.038470627822115</v>
+        <v>1.073966306951663</v>
       </c>
       <c r="D9">
-        <v>1.053100100873732</v>
+        <v>1.075089659131926</v>
       </c>
       <c r="E9">
-        <v>1.048663171220279</v>
+        <v>1.077562049143758</v>
       </c>
       <c r="F9">
-        <v>1.057805310549089</v>
+        <v>1.087175476936277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.067840010133864</v>
+        <v>1.061318408194648</v>
       </c>
       <c r="J9">
-        <v>1.062734382794053</v>
+        <v>1.079537528785603</v>
       </c>
       <c r="K9">
-        <v>1.065386650496815</v>
+        <v>1.0781297812344</v>
       </c>
       <c r="L9">
-        <v>1.061013150741491</v>
+        <v>1.080594751724219</v>
       </c>
       <c r="M9">
-        <v>1.07002532944869</v>
+        <v>1.090179679142215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.028105715675156</v>
+        <v>1.072051363401263</v>
       </c>
       <c r="D10">
-        <v>1.044948377927132</v>
+        <v>1.073561594855487</v>
       </c>
       <c r="E10">
-        <v>1.039845463208853</v>
+        <v>1.075867017092999</v>
       </c>
       <c r="F10">
-        <v>1.048607745750309</v>
+        <v>1.08539877756378</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.063394146225463</v>
+        <v>1.060632707004902</v>
       </c>
       <c r="J10">
-        <v>1.05524695193595</v>
+        <v>1.078144388348381</v>
       </c>
       <c r="K10">
-        <v>1.058550880577391</v>
+        <v>1.076878148210886</v>
       </c>
       <c r="L10">
-        <v>1.053530727085866</v>
+        <v>1.079175972116246</v>
       </c>
       <c r="M10">
-        <v>1.06215153499021</v>
+        <v>1.088676692623241</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.023455568513038</v>
+        <v>1.071221815669955</v>
       </c>
       <c r="D11">
-        <v>1.04129679621932</v>
+        <v>1.072899549814288</v>
       </c>
       <c r="E11">
-        <v>1.035897593292494</v>
+        <v>1.075132943201026</v>
       </c>
       <c r="F11">
-        <v>1.044490668050612</v>
+        <v>1.084629491800849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.061387174214903</v>
+        <v>1.060334026506331</v>
       </c>
       <c r="J11">
-        <v>1.051884106544685</v>
+        <v>1.077540123653932</v>
       </c>
       <c r="K11">
-        <v>1.055479788062828</v>
+        <v>1.076335042846464</v>
       </c>
       <c r="L11">
-        <v>1.050172864712114</v>
+        <v>1.078560789406904</v>
       </c>
       <c r="M11">
-        <v>1.058619651596537</v>
+        <v>1.088025209415536</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.021702134914923</v>
+        <v>1.070913627358375</v>
       </c>
       <c r="D12">
-        <v>1.039920845826793</v>
+        <v>1.072653577890865</v>
       </c>
       <c r="E12">
-        <v>1.034410289465389</v>
+        <v>1.074860256750283</v>
       </c>
       <c r="F12">
-        <v>1.042939743364592</v>
+        <v>1.084343748666463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060628610434775</v>
+        <v>1.060222816804728</v>
       </c>
       <c r="J12">
-        <v>1.050615597215976</v>
+        <v>1.07731551711052</v>
       </c>
       <c r="K12">
-        <v>1.05432120852828</v>
+        <v>1.076133136669698</v>
       </c>
       <c r="L12">
-        <v>1.048906657952583</v>
+        <v>1.078332155139995</v>
       </c>
       <c r="M12">
-        <v>1.057288066375331</v>
+        <v>1.087783115791312</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.022079467303905</v>
+        <v>1.070979737434005</v>
       </c>
       <c r="D13">
-        <v>1.040216900362125</v>
+        <v>1.072706342391393</v>
       </c>
       <c r="E13">
-        <v>1.034730290349058</v>
+        <v>1.074918749792933</v>
       </c>
       <c r="F13">
-        <v>1.043273426977878</v>
+        <v>1.084405041391497</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060791930459339</v>
+        <v>1.060246683736469</v>
       </c>
       <c r="J13">
-        <v>1.050888596158261</v>
+        <v>1.077363703049927</v>
       </c>
       <c r="K13">
-        <v>1.054570554504354</v>
+        <v>1.076176454065693</v>
       </c>
       <c r="L13">
-        <v>1.049179142049349</v>
+        <v>1.078381203784353</v>
       </c>
       <c r="M13">
-        <v>1.057574608769011</v>
+        <v>1.087835050415863</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.023311173950157</v>
+        <v>1.071196341912811</v>
       </c>
       <c r="D14">
-        <v>1.04118346724162</v>
+        <v>1.07287921890813</v>
       </c>
       <c r="E14">
-        <v>1.035775086974902</v>
+        <v>1.075110403245265</v>
       </c>
       <c r="F14">
-        <v>1.044362918875049</v>
+        <v>1.084605872115386</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.061324742819972</v>
+        <v>1.060324839318962</v>
       </c>
       <c r="J14">
-        <v>1.051779654609158</v>
+        <v>1.077521560793303</v>
       </c>
       <c r="K14">
-        <v>1.055384390399065</v>
+        <v>1.076318356749219</v>
       </c>
       <c r="L14">
-        <v>1.050068593715899</v>
+        <v>1.078541893047573</v>
       </c>
       <c r="M14">
-        <v>1.058509991814262</v>
+        <v>1.088005200006681</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.024066545142501</v>
+        <v>1.071329791404556</v>
       </c>
       <c r="D15">
-        <v>1.041776364530215</v>
+        <v>1.072985725987923</v>
       </c>
       <c r="E15">
-        <v>1.036416008614173</v>
+        <v>1.075228484733133</v>
       </c>
       <c r="F15">
-        <v>1.045031274901092</v>
+        <v>1.084729611012623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.061651267520413</v>
+        <v>1.060372958215378</v>
       </c>
       <c r="J15">
-        <v>1.052326054881597</v>
+        <v>1.077618801474216</v>
       </c>
       <c r="K15">
-        <v>1.055883421804094</v>
+        <v>1.076405764754832</v>
       </c>
       <c r="L15">
-        <v>1.050614064760818</v>
+        <v>1.078640881996068</v>
       </c>
       <c r="M15">
-        <v>1.059083662999761</v>
+        <v>1.088110020989794</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.028410765222393</v>
+        <v>1.072106409851537</v>
       </c>
       <c r="D16">
-        <v>1.045188047445883</v>
+        <v>1.073605524416701</v>
       </c>
       <c r="E16">
-        <v>1.040104620541919</v>
+        <v>1.07591573262306</v>
       </c>
       <c r="F16">
-        <v>1.048878028311555</v>
+        <v>1.085449833158362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.063525552002519</v>
+        <v>1.060652492129476</v>
       </c>
       <c r="J16">
-        <v>1.055467484310857</v>
+        <v>1.078184469656635</v>
       </c>
       <c r="K16">
-        <v>1.058752262125241</v>
+        <v>1.076914168188079</v>
       </c>
       <c r="L16">
-        <v>1.053750990439968</v>
+        <v>1.079216781899078</v>
       </c>
       <c r="M16">
-        <v>1.062383247002431</v>
+        <v>1.088719914954508</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.031091162958377</v>
+        <v>1.07259346266666</v>
       </c>
       <c r="D17">
-        <v>1.047294617192021</v>
+        <v>1.073994204065062</v>
       </c>
       <c r="E17">
-        <v>1.042382707755555</v>
+        <v>1.076346793448365</v>
       </c>
       <c r="F17">
-        <v>1.051254007724149</v>
+        <v>1.085901618148782</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064678788685995</v>
+        <v>1.060827362532792</v>
       </c>
       <c r="J17">
-        <v>1.057404842765563</v>
+        <v>1.078539022603782</v>
       </c>
       <c r="K17">
-        <v>1.060521278773655</v>
+        <v>1.077232770037238</v>
       </c>
       <c r="L17">
-        <v>1.055686296714859</v>
+        <v>1.079577802231444</v>
       </c>
       <c r="M17">
-        <v>1.064419327833473</v>
+        <v>1.089102302126545</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.032639087392655</v>
+        <v>1.072877517336562</v>
       </c>
       <c r="D18">
-        <v>1.048511681744153</v>
+        <v>1.07422087745496</v>
       </c>
       <c r="E18">
-        <v>1.043699060098568</v>
+        <v>1.076598213062869</v>
       </c>
       <c r="F18">
-        <v>1.052627007111666</v>
+        <v>1.086165140354479</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065343608220203</v>
+        <v>1.060929191020152</v>
       </c>
       <c r="J18">
-        <v>1.058523312828202</v>
+        <v>1.078745728486331</v>
       </c>
       <c r="K18">
-        <v>1.061542473428696</v>
+        <v>1.077418495206477</v>
       </c>
       <c r="L18">
-        <v>1.056803839258999</v>
+        <v>1.079788298169971</v>
       </c>
       <c r="M18">
-        <v>1.065595214966595</v>
+        <v>1.089325276579592</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.03316431171505</v>
+        <v>1.072974366779837</v>
       </c>
       <c r="D19">
-        <v>1.048924728355709</v>
+        <v>1.074298161009386</v>
       </c>
       <c r="E19">
-        <v>1.044145836316212</v>
+        <v>1.076683938858601</v>
       </c>
       <c r="F19">
-        <v>1.053093023582016</v>
+        <v>1.086254995288318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.065568986618588</v>
+        <v>1.060963883018011</v>
       </c>
       <c r="J19">
-        <v>1.058902758032063</v>
+        <v>1.078816193132276</v>
       </c>
       <c r="K19">
-        <v>1.061888902050167</v>
+        <v>1.077481804090449</v>
       </c>
       <c r="L19">
-        <v>1.057183013091896</v>
+        <v>1.079860058133519</v>
       </c>
       <c r="M19">
-        <v>1.065994210514779</v>
+        <v>1.089401294040516</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.030805198068476</v>
+        <v>1.072541210148803</v>
       </c>
       <c r="D20">
-        <v>1.047069817355854</v>
+        <v>1.073952506241921</v>
       </c>
       <c r="E20">
-        <v>1.042139584619343</v>
+        <v>1.07630054583861</v>
       </c>
       <c r="F20">
-        <v>1.051000428825954</v>
+        <v>1.085853145529121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064555874058718</v>
+        <v>1.060808618232338</v>
       </c>
       <c r="J20">
-        <v>1.057198186791572</v>
+        <v>1.07850099266557</v>
       </c>
       <c r="K20">
-        <v>1.060332588752294</v>
+        <v>1.077198598452311</v>
       </c>
       <c r="L20">
-        <v>1.055479832849151</v>
+        <v>1.079539076568515</v>
       </c>
       <c r="M20">
-        <v>1.064202097238973</v>
+        <v>1.089061282390707</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.022949204685877</v>
+        <v>1.071132558896373</v>
       </c>
       <c r="D21">
-        <v>1.040899389123233</v>
+        <v>1.072828312720118</v>
       </c>
       <c r="E21">
-        <v>1.035468008937203</v>
+        <v>1.075053966610263</v>
       </c>
       <c r="F21">
-        <v>1.044042700942646</v>
+        <v>1.084546732379971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.061168210734636</v>
+        <v>1.060301831811205</v>
       </c>
       <c r="J21">
-        <v>1.051517806327879</v>
+        <v>1.077475079934442</v>
       </c>
       <c r="K21">
-        <v>1.055145238149093</v>
+        <v>1.076276574723261</v>
       </c>
       <c r="L21">
-        <v>1.049807205876989</v>
+        <v>1.078494577611006</v>
       </c>
       <c r="M21">
-        <v>1.058235099205241</v>
+        <v>1.087955098069801</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.017857433475251</v>
+        <v>1.070246550863372</v>
       </c>
       <c r="D22">
-        <v>1.036905722687724</v>
+        <v>1.072121146080094</v>
       </c>
       <c r="E22">
-        <v>1.031151674120276</v>
+        <v>1.074270083644394</v>
       </c>
       <c r="F22">
-        <v>1.039541964770755</v>
+        <v>1.083725360026065</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058962102147159</v>
+        <v>1.059981652919771</v>
       </c>
       <c r="J22">
-        <v>1.047833375051167</v>
+        <v>1.076829146060217</v>
       </c>
       <c r="K22">
-        <v>1.051779887597363</v>
+        <v>1.075695862147033</v>
       </c>
       <c r="L22">
-        <v>1.046130279438469</v>
+        <v>1.077837118220495</v>
       </c>
       <c r="M22">
-        <v>1.054368781455258</v>
+        <v>1.087258995016049</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.020571776070697</v>
+        <v>1.070716272920762</v>
       </c>
       <c r="D23">
-        <v>1.039034116125291</v>
+        <v>1.072496061325797</v>
       </c>
       <c r="E23">
-        <v>1.033451878032706</v>
+        <v>1.074685645722697</v>
       </c>
       <c r="F23">
-        <v>1.041940369911589</v>
+        <v>1.084160783580201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060139101786818</v>
+        <v>1.060151532300699</v>
       </c>
       <c r="J23">
-        <v>1.049797721207629</v>
+        <v>1.077171653856723</v>
       </c>
       <c r="K23">
-        <v>1.053574177573353</v>
+        <v>1.076003804092504</v>
       </c>
       <c r="L23">
-        <v>1.048090387350562</v>
+        <v>1.078185720681348</v>
       </c>
       <c r="M23">
-        <v>1.056429717437559</v>
+        <v>1.08762806991572</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.030934461077862</v>
+        <v>1.072564820920592</v>
       </c>
       <c r="D24">
-        <v>1.047171430669419</v>
+        <v>1.073971347807368</v>
       </c>
       <c r="E24">
-        <v>1.042249479769915</v>
+        <v>1.076321443176439</v>
       </c>
       <c r="F24">
-        <v>1.051115049877187</v>
+        <v>1.085875048208242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064611438070078</v>
+        <v>1.060817088501598</v>
       </c>
       <c r="J24">
-        <v>1.057291601356524</v>
+        <v>1.078518177063161</v>
       </c>
       <c r="K24">
-        <v>1.06041788245628</v>
+        <v>1.077214039460271</v>
       </c>
       <c r="L24">
-        <v>1.055573159778031</v>
+        <v>1.079556575279358</v>
       </c>
       <c r="M24">
-        <v>1.064300290530946</v>
+        <v>1.089079817646162</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.042356539353937</v>
+        <v>1.074708594091094</v>
       </c>
       <c r="D25">
-        <v>1.056160458913779</v>
+        <v>1.075681893830621</v>
       </c>
       <c r="E25">
-        <v>1.051975406328001</v>
+        <v>1.07821927415668</v>
       </c>
       <c r="F25">
-        <v>1.061260996373867</v>
+        <v>1.087864506396157</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.069495822338195</v>
+        <v>1.061582745846135</v>
       </c>
       <c r="J25">
-        <v>1.065537937534324</v>
+        <v>1.080076870119242</v>
       </c>
       <c r="K25">
-        <v>1.067945307185878</v>
+        <v>1.078614143897532</v>
       </c>
       <c r="L25">
-        <v>1.063817101523172</v>
+        <v>1.081144199161515</v>
       </c>
       <c r="M25">
-        <v>1.072977323780712</v>
+        <v>1.090761925468654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_151/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.076417455671822</v>
+        <v>1.05103852352592</v>
       </c>
       <c r="D2">
-        <v>1.077045107061167</v>
+        <v>1.063005547055105</v>
       </c>
       <c r="E2">
-        <v>1.079732698394253</v>
+        <v>1.059388131780475</v>
       </c>
       <c r="F2">
-        <v>1.08945147429767</v>
+        <v>1.068996479440917</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062188075918561</v>
+        <v>1.073170436319209</v>
       </c>
       <c r="J2">
-        <v>1.081317015860643</v>
+        <v>1.071792932203017</v>
       </c>
       <c r="K2">
-        <v>1.079727440783993</v>
+        <v>1.073651728311565</v>
       </c>
       <c r="L2">
-        <v>1.082407978077283</v>
+        <v>1.070077748548781</v>
       </c>
       <c r="M2">
-        <v>1.092101558835843</v>
+        <v>1.079571526337616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077657705553621</v>
+        <v>1.057119330182426</v>
       </c>
       <c r="D3">
-        <v>1.078034300536449</v>
+        <v>1.067805539950851</v>
       </c>
       <c r="E3">
-        <v>1.080831446594123</v>
+        <v>1.064590155465553</v>
       </c>
       <c r="F3">
-        <v>1.090603890804163</v>
+        <v>1.074426581025485</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062624509904485</v>
+        <v>1.07572123824931</v>
       </c>
       <c r="J3">
-        <v>1.08221572525808</v>
+        <v>1.076165351484297</v>
       </c>
       <c r="K3">
-        <v>1.080533833884042</v>
+        <v>1.077638560838628</v>
       </c>
       <c r="L3">
-        <v>1.083324169501241</v>
+        <v>1.074458277646077</v>
       </c>
       <c r="M3">
-        <v>1.093073114497412</v>
+        <v>1.084188133001151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0784599984479</v>
+        <v>1.060958261288804</v>
       </c>
       <c r="D4">
-        <v>1.078674096287257</v>
+        <v>1.070838080145684</v>
       </c>
       <c r="E4">
-        <v>1.081542359179416</v>
+        <v>1.067878607452559</v>
       </c>
       <c r="F4">
-        <v>1.091349655251975</v>
+        <v>1.077859958297458</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062905487940874</v>
+        <v>1.0773207492566</v>
       </c>
       <c r="J4">
-        <v>1.082796452219712</v>
+        <v>1.078921498045907</v>
       </c>
       <c r="K4">
-        <v>1.081054726057717</v>
+        <v>1.080150602299839</v>
       </c>
       <c r="L4">
-        <v>1.083916357163479</v>
+        <v>1.077221415859025</v>
       </c>
       <c r="M4">
-        <v>1.093701259569581</v>
+        <v>1.087101430447277</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.078797228890585</v>
+        <v>1.062550250189449</v>
       </c>
       <c r="D5">
-        <v>1.078943000670841</v>
+        <v>1.072096131075149</v>
       </c>
       <c r="E5">
-        <v>1.081841215792141</v>
+        <v>1.06924329403901</v>
       </c>
       <c r="F5">
-        <v>1.09166319352433</v>
+        <v>1.079284969433801</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063023270881851</v>
+        <v>1.077981413861613</v>
       </c>
       <c r="J5">
-        <v>1.083040399956981</v>
+        <v>1.080063399754343</v>
       </c>
       <c r="K5">
-        <v>1.081273495118513</v>
+        <v>1.081191106095393</v>
       </c>
       <c r="L5">
-        <v>1.084165158499748</v>
+        <v>1.078366659586668</v>
       </c>
       <c r="M5">
-        <v>1.093965209261527</v>
+        <v>1.088309210691305</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07885384828678</v>
+        <v>1.062816296668091</v>
       </c>
       <c r="D6">
-        <v>1.078988147071811</v>
+        <v>1.072306397088171</v>
       </c>
       <c r="E6">
-        <v>1.081891394519036</v>
+        <v>1.06947141071187</v>
       </c>
       <c r="F6">
-        <v>1.091715839123143</v>
+        <v>1.079523180506323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063043027224346</v>
+        <v>1.078091664621993</v>
       </c>
       <c r="J6">
-        <v>1.083081348755668</v>
+        <v>1.080254165991786</v>
       </c>
       <c r="K6">
-        <v>1.081310214885764</v>
+        <v>1.081364917056789</v>
       </c>
       <c r="L6">
-        <v>1.084206924319999</v>
+        <v>1.078558010171862</v>
       </c>
       <c r="M6">
-        <v>1.094009520425924</v>
+        <v>1.088511027696045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.078464504745276</v>
+        <v>1.060979618255535</v>
       </c>
       <c r="D7">
-        <v>1.078677689657971</v>
+        <v>1.070854955468009</v>
       </c>
       <c r="E7">
-        <v>1.081546352558018</v>
+        <v>1.067896911297169</v>
       </c>
       <c r="F7">
-        <v>1.09135384468995</v>
+        <v>1.077879070523988</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062907063098317</v>
+        <v>1.077329622766522</v>
       </c>
       <c r="J7">
-        <v>1.082799712605917</v>
+        <v>1.078936821218287</v>
       </c>
       <c r="K7">
-        <v>1.081057650100284</v>
+        <v>1.080164565865743</v>
       </c>
       <c r="L7">
-        <v>1.083919682264226</v>
+        <v>1.07723678212387</v>
       </c>
       <c r="M7">
-        <v>1.093704786958196</v>
+        <v>1.087117634607547</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.076836653096697</v>
+        <v>1.053114027460477</v>
       </c>
       <c r="D8">
-        <v>1.077379467874875</v>
+        <v>1.064643379150997</v>
       </c>
       <c r="E8">
-        <v>1.080104036747776</v>
+        <v>1.06116274678138</v>
       </c>
       <c r="F8">
-        <v>1.089840924273873</v>
+        <v>1.070848745556292</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062335866064666</v>
+        <v>1.074043335600898</v>
       </c>
       <c r="J8">
-        <v>1.081620904881902</v>
+        <v>1.073286195076885</v>
       </c>
       <c r="K8">
-        <v>1.080000151660504</v>
+        <v>1.075013520956355</v>
       </c>
       <c r="L8">
-        <v>1.082717744408411</v>
+        <v>1.07157338175394</v>
       </c>
       <c r="M8">
-        <v>1.092430008227801</v>
+        <v>1.081147500877562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.073966306951663</v>
+        <v>1.038470627822116</v>
       </c>
       <c r="D9">
-        <v>1.075089659131926</v>
+        <v>1.053100100873732</v>
       </c>
       <c r="E9">
-        <v>1.077562049143758</v>
+        <v>1.048663171220279</v>
       </c>
       <c r="F9">
-        <v>1.087175476936277</v>
+        <v>1.05780531054909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061318408194648</v>
+        <v>1.067840010133864</v>
       </c>
       <c r="J9">
-        <v>1.079537528785603</v>
+        <v>1.062734382794053</v>
       </c>
       <c r="K9">
-        <v>1.0781297812344</v>
+        <v>1.065386650496815</v>
       </c>
       <c r="L9">
-        <v>1.080594751724219</v>
+        <v>1.061013150741492</v>
       </c>
       <c r="M9">
-        <v>1.090179679142215</v>
+        <v>1.07002532944869</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072051363401263</v>
+        <v>1.028105715675155</v>
       </c>
       <c r="D10">
-        <v>1.073561594855487</v>
+        <v>1.044948377927132</v>
       </c>
       <c r="E10">
-        <v>1.075867017092999</v>
+        <v>1.039845463208853</v>
       </c>
       <c r="F10">
-        <v>1.08539877756378</v>
+        <v>1.048607745750308</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060632707004902</v>
+        <v>1.063394146225462</v>
       </c>
       <c r="J10">
-        <v>1.078144388348381</v>
+        <v>1.055246951935949</v>
       </c>
       <c r="K10">
-        <v>1.076878148210886</v>
+        <v>1.05855088057739</v>
       </c>
       <c r="L10">
-        <v>1.079175972116246</v>
+        <v>1.053530727085866</v>
       </c>
       <c r="M10">
-        <v>1.088676692623241</v>
+        <v>1.062151534990209</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.071221815669955</v>
+        <v>1.02345556851304</v>
       </c>
       <c r="D11">
-        <v>1.072899549814288</v>
+        <v>1.041296796219321</v>
       </c>
       <c r="E11">
-        <v>1.075132943201026</v>
+        <v>1.035897593292495</v>
       </c>
       <c r="F11">
-        <v>1.084629491800849</v>
+        <v>1.044490668050613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060334026506331</v>
+        <v>1.061387174214904</v>
       </c>
       <c r="J11">
-        <v>1.077540123653932</v>
+        <v>1.051884106544686</v>
       </c>
       <c r="K11">
-        <v>1.076335042846464</v>
+        <v>1.055479788062829</v>
       </c>
       <c r="L11">
-        <v>1.078560789406904</v>
+        <v>1.050172864712115</v>
       </c>
       <c r="M11">
-        <v>1.088025209415536</v>
+        <v>1.058619651596538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.070913627358375</v>
+        <v>1.021702134914921</v>
       </c>
       <c r="D12">
-        <v>1.072653577890865</v>
+        <v>1.039920845826792</v>
       </c>
       <c r="E12">
-        <v>1.074860256750283</v>
+        <v>1.034410289465387</v>
       </c>
       <c r="F12">
-        <v>1.084343748666463</v>
+        <v>1.04293974336459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060222816804728</v>
+        <v>1.060628610434774</v>
       </c>
       <c r="J12">
-        <v>1.07731551711052</v>
+        <v>1.050615597215974</v>
       </c>
       <c r="K12">
-        <v>1.076133136669698</v>
+        <v>1.054321208528278</v>
       </c>
       <c r="L12">
-        <v>1.078332155139995</v>
+        <v>1.048906657952581</v>
       </c>
       <c r="M12">
-        <v>1.087783115791312</v>
+        <v>1.057288066375329</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.070979737434005</v>
+        <v>1.022079467303904</v>
       </c>
       <c r="D13">
-        <v>1.072706342391393</v>
+        <v>1.040216900362124</v>
       </c>
       <c r="E13">
-        <v>1.074918749792933</v>
+        <v>1.034730290349057</v>
       </c>
       <c r="F13">
-        <v>1.084405041391497</v>
+        <v>1.043273426977877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060246683736469</v>
+        <v>1.060791930459338</v>
       </c>
       <c r="J13">
-        <v>1.077363703049927</v>
+        <v>1.05088859615826</v>
       </c>
       <c r="K13">
-        <v>1.076176454065693</v>
+        <v>1.054570554504353</v>
       </c>
       <c r="L13">
-        <v>1.078381203784353</v>
+        <v>1.049179142049348</v>
       </c>
       <c r="M13">
-        <v>1.087835050415863</v>
+        <v>1.057574608769009</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.071196341912811</v>
+        <v>1.023311173950157</v>
       </c>
       <c r="D14">
-        <v>1.07287921890813</v>
+        <v>1.04118346724162</v>
       </c>
       <c r="E14">
-        <v>1.075110403245265</v>
+        <v>1.035775086974902</v>
       </c>
       <c r="F14">
-        <v>1.084605872115386</v>
+        <v>1.044362918875048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060324839318962</v>
+        <v>1.061324742819972</v>
       </c>
       <c r="J14">
-        <v>1.077521560793303</v>
+        <v>1.051779654609158</v>
       </c>
       <c r="K14">
-        <v>1.076318356749219</v>
+        <v>1.055384390399065</v>
       </c>
       <c r="L14">
-        <v>1.078541893047573</v>
+        <v>1.050068593715899</v>
       </c>
       <c r="M14">
-        <v>1.088005200006681</v>
+        <v>1.058509991814262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.071329791404556</v>
+        <v>1.024066545142503</v>
       </c>
       <c r="D15">
-        <v>1.072985725987923</v>
+        <v>1.041776364530217</v>
       </c>
       <c r="E15">
-        <v>1.075228484733133</v>
+        <v>1.036416008614175</v>
       </c>
       <c r="F15">
-        <v>1.084729611012623</v>
+        <v>1.045031274901094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060372958215378</v>
+        <v>1.061651267520415</v>
       </c>
       <c r="J15">
-        <v>1.077618801474216</v>
+        <v>1.052326054881599</v>
       </c>
       <c r="K15">
-        <v>1.076405764754832</v>
+        <v>1.055883421804095</v>
       </c>
       <c r="L15">
-        <v>1.078640881996068</v>
+        <v>1.050614064760819</v>
       </c>
       <c r="M15">
-        <v>1.088110020989794</v>
+        <v>1.059083662999763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.072106409851537</v>
+        <v>1.028410765222393</v>
       </c>
       <c r="D16">
-        <v>1.073605524416701</v>
+        <v>1.045188047445883</v>
       </c>
       <c r="E16">
-        <v>1.07591573262306</v>
+        <v>1.040104620541919</v>
       </c>
       <c r="F16">
-        <v>1.085449833158362</v>
+        <v>1.048878028311555</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060652492129476</v>
+        <v>1.063525552002519</v>
       </c>
       <c r="J16">
-        <v>1.078184469656635</v>
+        <v>1.055467484310857</v>
       </c>
       <c r="K16">
-        <v>1.076914168188079</v>
+        <v>1.058752262125242</v>
       </c>
       <c r="L16">
-        <v>1.079216781899078</v>
+        <v>1.053750990439968</v>
       </c>
       <c r="M16">
-        <v>1.088719914954508</v>
+        <v>1.062383247002431</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07259346266666</v>
+        <v>1.031091162958376</v>
       </c>
       <c r="D17">
-        <v>1.073994204065062</v>
+        <v>1.047294617192019</v>
       </c>
       <c r="E17">
-        <v>1.076346793448365</v>
+        <v>1.042382707755554</v>
       </c>
       <c r="F17">
-        <v>1.085901618148782</v>
+        <v>1.051254007724148</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060827362532792</v>
+        <v>1.064678788685995</v>
       </c>
       <c r="J17">
-        <v>1.078539022603782</v>
+        <v>1.057404842765562</v>
       </c>
       <c r="K17">
-        <v>1.077232770037238</v>
+        <v>1.060521278773654</v>
       </c>
       <c r="L17">
-        <v>1.079577802231444</v>
+        <v>1.055686296714857</v>
       </c>
       <c r="M17">
-        <v>1.089102302126545</v>
+        <v>1.064419327833471</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072877517336562</v>
+        <v>1.032639087392653</v>
       </c>
       <c r="D18">
-        <v>1.07422087745496</v>
+        <v>1.048511681744152</v>
       </c>
       <c r="E18">
-        <v>1.076598213062869</v>
+        <v>1.043699060098567</v>
       </c>
       <c r="F18">
-        <v>1.086165140354479</v>
+        <v>1.052627007111665</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060929191020152</v>
+        <v>1.065343608220202</v>
       </c>
       <c r="J18">
-        <v>1.078745728486331</v>
+        <v>1.0585233128282</v>
       </c>
       <c r="K18">
-        <v>1.077418495206477</v>
+        <v>1.061542473428694</v>
       </c>
       <c r="L18">
-        <v>1.079788298169971</v>
+        <v>1.056803839258997</v>
       </c>
       <c r="M18">
-        <v>1.089325276579592</v>
+        <v>1.065595214966594</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.072974366779837</v>
+        <v>1.033164311715052</v>
       </c>
       <c r="D19">
-        <v>1.074298161009386</v>
+        <v>1.048924728355711</v>
       </c>
       <c r="E19">
-        <v>1.076683938858601</v>
+        <v>1.044145836316214</v>
       </c>
       <c r="F19">
-        <v>1.086254995288318</v>
+        <v>1.053093023582018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060963883018011</v>
+        <v>1.065568986618589</v>
       </c>
       <c r="J19">
-        <v>1.078816193132276</v>
+        <v>1.058902758032065</v>
       </c>
       <c r="K19">
-        <v>1.077481804090449</v>
+        <v>1.061888902050169</v>
       </c>
       <c r="L19">
-        <v>1.079860058133519</v>
+        <v>1.057183013091897</v>
       </c>
       <c r="M19">
-        <v>1.089401294040516</v>
+        <v>1.06599421051478</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.072541210148803</v>
+        <v>1.030805198068476</v>
       </c>
       <c r="D20">
-        <v>1.073952506241921</v>
+        <v>1.047069817355855</v>
       </c>
       <c r="E20">
-        <v>1.07630054583861</v>
+        <v>1.042139584619343</v>
       </c>
       <c r="F20">
-        <v>1.085853145529121</v>
+        <v>1.051000428825953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060808618232338</v>
+        <v>1.064555874058718</v>
       </c>
       <c r="J20">
-        <v>1.07850099266557</v>
+        <v>1.057198186791572</v>
       </c>
       <c r="K20">
-        <v>1.077198598452311</v>
+        <v>1.060332588752294</v>
       </c>
       <c r="L20">
-        <v>1.079539076568515</v>
+        <v>1.05547983284915</v>
       </c>
       <c r="M20">
-        <v>1.089061282390707</v>
+        <v>1.064202097238973</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.071132558896373</v>
+        <v>1.022949204685879</v>
       </c>
       <c r="D21">
-        <v>1.072828312720118</v>
+        <v>1.040899389123235</v>
       </c>
       <c r="E21">
-        <v>1.075053966610263</v>
+        <v>1.035468008937205</v>
       </c>
       <c r="F21">
-        <v>1.084546732379971</v>
+        <v>1.044042700942647</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060301831811205</v>
+        <v>1.061168210734637</v>
       </c>
       <c r="J21">
-        <v>1.077475079934442</v>
+        <v>1.051517806327881</v>
       </c>
       <c r="K21">
-        <v>1.076276574723261</v>
+        <v>1.055145238149095</v>
       </c>
       <c r="L21">
-        <v>1.078494577611006</v>
+        <v>1.049807205876991</v>
       </c>
       <c r="M21">
-        <v>1.087955098069801</v>
+        <v>1.058235099205242</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.070246550863372</v>
+        <v>1.017857433475251</v>
       </c>
       <c r="D22">
-        <v>1.072121146080094</v>
+        <v>1.036905722687724</v>
       </c>
       <c r="E22">
-        <v>1.074270083644394</v>
+        <v>1.031151674120276</v>
       </c>
       <c r="F22">
-        <v>1.083725360026065</v>
+        <v>1.039541964770754</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059981652919771</v>
+        <v>1.058962102147159</v>
       </c>
       <c r="J22">
-        <v>1.076829146060217</v>
+        <v>1.047833375051167</v>
       </c>
       <c r="K22">
-        <v>1.075695862147033</v>
+        <v>1.051779887597362</v>
       </c>
       <c r="L22">
-        <v>1.077837118220495</v>
+        <v>1.046130279438469</v>
       </c>
       <c r="M22">
-        <v>1.087258995016049</v>
+        <v>1.054368781455258</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.070716272920762</v>
+        <v>1.0205717760707</v>
       </c>
       <c r="D23">
-        <v>1.072496061325797</v>
+        <v>1.039034116125294</v>
       </c>
       <c r="E23">
-        <v>1.074685645722697</v>
+        <v>1.033451878032708</v>
       </c>
       <c r="F23">
-        <v>1.084160783580201</v>
+        <v>1.041940369911591</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060151532300699</v>
+        <v>1.06013910178682</v>
       </c>
       <c r="J23">
-        <v>1.077171653856723</v>
+        <v>1.049797721207631</v>
       </c>
       <c r="K23">
-        <v>1.076003804092504</v>
+        <v>1.053574177573355</v>
       </c>
       <c r="L23">
-        <v>1.078185720681348</v>
+        <v>1.048090387350564</v>
       </c>
       <c r="M23">
-        <v>1.08762806991572</v>
+        <v>1.056429717437561</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.072564820920592</v>
+        <v>1.030934461077861</v>
       </c>
       <c r="D24">
-        <v>1.073971347807368</v>
+        <v>1.047171430669418</v>
       </c>
       <c r="E24">
-        <v>1.076321443176439</v>
+        <v>1.042249479769914</v>
       </c>
       <c r="F24">
-        <v>1.085875048208242</v>
+        <v>1.051115049877185</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060817088501598</v>
+        <v>1.064611438070077</v>
       </c>
       <c r="J24">
-        <v>1.078518177063161</v>
+        <v>1.057291601356523</v>
       </c>
       <c r="K24">
-        <v>1.077214039460271</v>
+        <v>1.060417882456279</v>
       </c>
       <c r="L24">
-        <v>1.079556575279358</v>
+        <v>1.05557315977803</v>
       </c>
       <c r="M24">
-        <v>1.089079817646162</v>
+        <v>1.064300290530945</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.074708594091094</v>
+        <v>1.042356539353938</v>
       </c>
       <c r="D25">
-        <v>1.075681893830621</v>
+        <v>1.05616045891378</v>
       </c>
       <c r="E25">
-        <v>1.07821927415668</v>
+        <v>1.051975406328002</v>
       </c>
       <c r="F25">
-        <v>1.087864506396157</v>
+        <v>1.061260996373869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061582745846135</v>
+        <v>1.069495822338196</v>
       </c>
       <c r="J25">
-        <v>1.080076870119242</v>
+        <v>1.065537937534326</v>
       </c>
       <c r="K25">
-        <v>1.078614143897532</v>
+        <v>1.06794530718588</v>
       </c>
       <c r="L25">
-        <v>1.081144199161515</v>
+        <v>1.063817101523173</v>
       </c>
       <c r="M25">
-        <v>1.090761925468654</v>
+        <v>1.072977323780713</v>
       </c>
     </row>
   </sheetData>
